--- a/data_in/glossary.xlsx
+++ b/data_in/glossary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\ETL-Project\data_in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5173EE12-C971-4FAB-9E2C-A3F82FB83411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFC6585-1AF7-4E3C-9540-BDB4D51821E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37500A4C-7934-4AAE-8C27-B290ED1CD1C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Galactic Year</t>
   </si>
@@ -135,9 +135,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>212.5 degrees celsius</t>
-  </si>
-  <si>
     <t>gravity</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>https://en.wikipedia.org/wiki/Gravity</t>
   </si>
   <si>
-    <t>degrees absolute zero.</t>
-  </si>
-  <si>
     <t>average density of all planetary material.</t>
   </si>
   <si>
@@ -187,13 +181,190 @@
   </si>
   <si>
     <t>ly</t>
+  </si>
+  <si>
+    <t>exoplanet</t>
+  </si>
+  <si>
+    <t>a planet that exists outside of our solar system</t>
+  </si>
+  <si>
+    <t>extrasolarplanet</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Exoplanet#:~:text=An%20exoplanet%20or%20extrasolar%20planet,planet%2C%20originally%20detected%20in%201988.</t>
+  </si>
+  <si>
+    <t>(potentially) habitabal exoplanet</t>
+  </si>
+  <si>
+    <t>a planet thtat exists outside our solar system and has a surface temperature that can sustain liquid water</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>orbits a star, massive enough to become gravitationally rounded.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Planet#Planetary-mass_objects</t>
+  </si>
+  <si>
+    <t>rogue planet</t>
+  </si>
+  <si>
+    <t>a planet without a star or gravitationally bounding remnant to orbit</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rogue_planet</t>
+  </si>
+  <si>
+    <t>galactic coordinate system</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Galactic_coordinate_system</t>
+  </si>
+  <si>
+    <t>l :galactic longitude                b: galactic latitude</t>
+  </si>
+  <si>
+    <t>a celestial coordinate system with our sun at the center.</t>
+  </si>
+  <si>
+    <t>Lorentz factor</t>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>measures the distortion of time and space on a moving object.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lorentz_factor#:~:text=The%20Lorentz%20factor%20or%20Lorentz,derivations%20of%20the%20Lorentz%20transformations.</t>
+  </si>
+  <si>
+    <t>Proper Velocity</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Proper_velocity</t>
+  </si>
+  <si>
+    <t>distance per unit time where time is measured by the moving object.</t>
+  </si>
+  <si>
+    <t>Interstellar Travel</t>
+  </si>
+  <si>
+    <t>travelling between stars (or planetary systems).</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Interstellar_travel</t>
+  </si>
+  <si>
+    <t>Planetary Habitability</t>
+  </si>
+  <si>
+    <t>ability to develop and maintain environments hospitable to life</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Planetary_habitability</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_potentially_habitable_exoplanets   http://phl.upr.edu/projects/habitable-exoplanets-catalog/</t>
+  </si>
+  <si>
+    <t>solar flux/insolation</t>
+  </si>
+  <si>
+    <t>w/m^2, j/m^2 also /time</t>
+  </si>
+  <si>
+    <t>amount of solar energy reaching a planet, often measured in watts or joules/meter^2 and often over a time period. Measured here relative to earth (earth=1).</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Solar_irradiance</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1,361 W/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>solar constant</t>
+  </si>
+  <si>
+    <t>amount of solar energy received by earth.</t>
+  </si>
+  <si>
+    <t>https://scied.ucar.edu/planetary-energy-balance-temperature-calculate</t>
+  </si>
+  <si>
+    <t>Planetary Equilibrium Temperature</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Planetary_equilibrium_temperature</t>
+  </si>
+  <si>
+    <t>theoretical temperature of a planet if it were to absorb all radiation from its parent star(s). Earth has an equlibrium temperature of 255K (-18c, -1f), but an actual temperature of 288K(47c, 85f) due to greenhouse effects).</t>
+  </si>
+  <si>
+    <t>273.16 degrees celsius</t>
+  </si>
+  <si>
+    <t>degrees above absolute zero.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +394,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,12 +451,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,216 +792,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A3CA1C-7901-438A-8CD6-FCD27EB4B525}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" customWidth="1"/>
-    <col min="5" max="5" width="51" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="29.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="99.42578125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4187DEC3-F3C6-422E-8E1E-312AE7E1A395}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{F8E2D5CF-91A6-4E2F-8370-9BACC48D1246}"/>
     <hyperlink ref="E9" r:id="rId2" xr:uid="{5350558F-4F92-49A1-BE28-84462C347F11}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{F8E2D5CF-91A6-4E2F-8370-9BACC48D1246}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{4187DEC3-F3C6-422E-8E1E-312AE7E1A395}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{71EEF069-5F89-4945-AA9E-149A81C45042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data_in/glossary.xlsx
+++ b/data_in/glossary.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\inhabitable_exoplanets_grp_prjt_2\Project2\XLcsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFC6585-1AF7-4E3C-9540-BDB4D51821E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA18B300-F550-4B5D-B837-AD48AF45C4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37500A4C-7934-4AAE-8C27-B290ED1CD1C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="glossary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
-  <si>
-    <t>Galactic Year</t>
-  </si>
-  <si>
-    <t>Gyr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>230 Billion Years</t>
   </si>
@@ -39,24 +33,9 @@
     <t>Time for our solar system to orbit the center of the Milky Way.</t>
   </si>
   <si>
-    <t>Parsec</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>Light Year</t>
-  </si>
-  <si>
     <t>9,460,730,472,580,800 meters</t>
   </si>
   <si>
-    <t>trigometric parallax function</t>
-  </si>
-  <si>
-    <t>astronomical unit</t>
-  </si>
-  <si>
     <t>149,597,870,700 meters.</t>
   </si>
   <si>
@@ -78,9 +57,6 @@
     <t>https://en.wikipedia.org/wiki/Earth_radius</t>
   </si>
   <si>
-    <t>mean(polar/equatorial) radius.</t>
-  </si>
-  <si>
     <t>6371 km/3959 miles</t>
   </si>
   <si>
@@ -96,27 +72,12 @@
     <t>~2 * 10^30 kg</t>
   </si>
   <si>
-    <t>approximate mass of the sun.</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Solar_mass</t>
   </si>
   <si>
-    <t>approximate mass of the earth.</t>
-  </si>
-  <si>
     <t>695,700 kilometres</t>
   </si>
   <si>
-    <t>solar mass</t>
-  </si>
-  <si>
-    <t>solar radius</t>
-  </si>
-  <si>
-    <t>432,300 miles, ~10 * radius of jupiter, 109 * earth.</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Solar_radius</t>
   </si>
   <si>
@@ -126,45 +87,15 @@
     <t>5.51 g/cm^3</t>
   </si>
   <si>
-    <t>kelvin</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Kelvin</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>gravity</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>m/s^2</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gravity</t>
   </si>
   <si>
-    <t>average density of all planetary material.</t>
-  </si>
-  <si>
-    <t>effect of bent space-time. {earth=9.807, sun=234, moon=1.62, jupiter=24.79}.</t>
-  </si>
-  <si>
-    <t>mean(earth-sun distance),~93 million miles.</t>
-  </si>
-  <si>
-    <t>distance that light travels in vacuum in one Julian year (365.25 days), ~9.46 trillion km/ 5.88 trillion miles.</t>
-  </si>
-  <si>
-    <t>~3.3 light years/ 210,000 astronomical units/31 trillion km/19 trillion miles.</t>
-  </si>
-  <si>
-    <t>abbr</t>
-  </si>
-  <si>
     <t>more_info</t>
   </si>
   <si>
@@ -177,45 +108,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>au</t>
-  </si>
-  <si>
-    <t>ly</t>
-  </si>
-  <si>
     <t>exoplanet</t>
   </si>
   <si>
-    <t>a planet that exists outside of our solar system</t>
-  </si>
-  <si>
     <t>extrasolarplanet</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Exoplanet#:~:text=An%20exoplanet%20or%20extrasolar%20planet,planet%2C%20originally%20detected%20in%201988.</t>
-  </si>
-  <si>
-    <t>(potentially) habitabal exoplanet</t>
-  </si>
-  <si>
-    <t>a planet thtat exists outside our solar system and has a surface temperature that can sustain liquid water</t>
-  </si>
-  <si>
     <t>planet</t>
   </si>
   <si>
-    <t>orbits a star, massive enough to become gravitationally rounded.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Planet#Planetary-mass_objects</t>
-  </si>
-  <si>
-    <t>rogue planet</t>
-  </si>
-  <si>
-    <t>a planet without a star or gravitationally bounding remnant to orbit</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Rogue_planet</t>
   </si>
   <si>
@@ -226,9 +127,6 @@
   </si>
   <si>
     <t>l :galactic longitude                b: galactic latitude</t>
-  </si>
-  <si>
-    <t>a celestial coordinate system with our sun at the center.</t>
   </si>
   <si>
     <t>Lorentz factor</t>
@@ -248,76 +146,31 @@
     </r>
   </si>
   <si>
-    <t>measures the distortion of time and space on a moving object.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lorentz_factor#:~:text=The%20Lorentz%20factor%20or%20Lorentz,derivations%20of%20the%20Lorentz%20transformations.</t>
-  </si>
-  <si>
     <t>Proper Velocity</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Proper_velocity</t>
   </si>
   <si>
-    <t>distance per unit time where time is measured by the moving object.</t>
-  </si>
-  <si>
     <t>Interstellar Travel</t>
   </si>
   <si>
-    <t>travelling between stars (or planetary systems).</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Interstellar_travel</t>
   </si>
   <si>
     <t>Planetary Habitability</t>
   </si>
   <si>
-    <t>ability to develop and maintain environments hospitable to life</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Planetary_habitability</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_potentially_habitable_exoplanets   http://phl.upr.edu/projects/habitable-exoplanets-catalog/</t>
   </si>
   <si>
-    <t>solar flux/insolation</t>
-  </si>
-  <si>
     <t>w/m^2, j/m^2 also /time</t>
   </si>
   <si>
-    <t>amount of solar energy reaching a planet, often measured in watts or joules/meter^2 and often over a time period. Measured here relative to earth (earth=1).</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Solar_irradiance</t>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
   </si>
   <si>
     <r>
@@ -336,35 +189,176 @@
     </r>
   </si>
   <si>
-    <t>solar constant</t>
-  </si>
-  <si>
-    <t>amount of solar energy received by earth.</t>
-  </si>
-  <si>
-    <t>https://scied.ucar.edu/planetary-energy-balance-temperature-calculate</t>
-  </si>
-  <si>
     <t>Planetary Equilibrium Temperature</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Planetary_equilibrium_temperature</t>
   </si>
   <si>
-    <t>theoretical temperature of a planet if it were to absorb all radiation from its parent star(s). Earth has an equlibrium temperature of 255K (-18c, -1f), but an actual temperature of 288K(47c, 85f) due to greenhouse effects).</t>
-  </si>
-  <si>
-    <t>273.16 degrees celsius</t>
-  </si>
-  <si>
-    <t>degrees above absolute zero.</t>
+    <t>273.15 degrees celsius</t>
+  </si>
+  <si>
+    <t>absolute zero</t>
+  </si>
+  <si>
+    <t>0 degrees kelvin</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Absolute_zero</t>
+  </si>
+  <si>
+    <t>Habitable Zone</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Circumstellar_habitable_zone</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tidal_locking</t>
+  </si>
+  <si>
+    <t>Tidal Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when an orbiting astronomical body rotates on its own axis at the same rate it orbits its host, resulting in the same side always facing the object it is orbiting. </t>
+  </si>
+  <si>
+    <t>An exoplanet that has a surface temperature that can sustain liquid water and is fairly comporable to earth in size, composition, and atmospheric properties.</t>
+  </si>
+  <si>
+    <t>Theoretical point where gases reach minimum enthalpy and entropy values.</t>
+  </si>
+  <si>
+    <t>The approximate mass of the earth.</t>
+  </si>
+  <si>
+    <t>The averagedistance between the earth and the sun, ~93 million miles (150 million Kilometers).</t>
+  </si>
+  <si>
+    <t>The amount of solar energy reaching a planet, often measured in watts or joules/meter^2 and often over a time period. Commonly measured relative to earth (earth=1).</t>
+  </si>
+  <si>
+    <t>The approximate mass of the sun.</t>
+  </si>
+  <si>
+    <t>The average density of all planetary material composing earth.</t>
+  </si>
+  <si>
+    <t>The average radius of earth (polar and equatorial radii).</t>
+  </si>
+  <si>
+    <t>A planet that exists outside of our solar system.</t>
+  </si>
+  <si>
+    <t>A celestial coordinate system with our sun at the center.</t>
+  </si>
+  <si>
+    <t>The effect of bent space-time.  A force that attracts all objects containing mass. {earth=9.807, sun=234, moon=1.62, jupiter=24.79}.</t>
+  </si>
+  <si>
+    <t>The area around a star that would allow water to exist in a liquid form.</t>
+  </si>
+  <si>
+    <t>Travelling between stars (or planetary systems).</t>
+  </si>
+  <si>
+    <t>Degrees above absolute zero, same scale as celsius but starts at theoretical freezing temperature of all matter (save quantum mechanics), not water.</t>
+  </si>
+  <si>
+    <t>The distance which light travels in vacuum in one Julian year (365.25 days), ~9.46 trillion km/ 5.88 trillion miles.</t>
+  </si>
+  <si>
+    <t>Measures the distortion of time and space on a moving object.</t>
+  </si>
+  <si>
+    <t>A astronomical object which orbits a star, is massive enough to become gravitationally rounded, and has cleared its surrounding area of objects not orbitting itself.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Planet</t>
+  </si>
+  <si>
+    <t>The ability to develop and maintain environments hospitable to life</t>
+  </si>
+  <si>
+    <t>The distance per unit time where time is measured by the moving object, not a 'stationary' clock .</t>
+  </si>
+  <si>
+    <t>A planet without a star or gravitationally bounding remnant to orbit.</t>
+  </si>
+  <si>
+    <t>Rogue Planet</t>
+  </si>
+  <si>
+    <t>Solar Constant</t>
+  </si>
+  <si>
+    <t>Solar Flux/Insolation</t>
+  </si>
+  <si>
+    <t>Solar Mass</t>
+  </si>
+  <si>
+    <t>Solar Radius</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Solar_constant</t>
+  </si>
+  <si>
+    <t>The amount of solar energy received by earth.</t>
+  </si>
+  <si>
+    <t>The radius of the sun; 432,300 miles ( ~10 * radius of jupiter, 109 * earth).</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lorentz_factor</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Exoplanet</t>
+  </si>
+  <si>
+    <t>The theoretical temperature of a planet if it were to absorb all the radiation from its parent star(s) that reaches its surface. Earth has an equlibrium temperature of 255K (-18c, -1f), but an actual temperature of about 288K(15c, 59f) due to greenhouse effects).</t>
+  </si>
+  <si>
+    <t>~3.3 light years.</t>
+  </si>
+  <si>
+    <t>A distance scale of astronomical proportions.  210,000 astronomical units/31 trillion km/19 trillion miles.</t>
+  </si>
+  <si>
+    <t>Abiogenesis</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Abiogenesis</t>
+  </si>
+  <si>
+    <t>The creation on life from inorganic materials.</t>
+  </si>
+  <si>
+    <t>astronomical unit (au)</t>
+  </si>
+  <si>
+    <t>Galactic Year (Gyr)</t>
+  </si>
+  <si>
+    <t>gravity (g)</t>
+  </si>
+  <si>
+    <t>kelvin (K)</t>
+  </si>
+  <si>
+    <t>Light Year (ly)</t>
+  </si>
+  <si>
+    <t>Parsec (pc)</t>
+  </si>
+  <si>
+    <t>inhabitable exoplanet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,19 +394,6 @@
       <color rgb="FF202122"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -451,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -476,7 +457,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,369 +772,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A3CA1C-7901-438A-8CD6-FCD27EB4B525}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="29.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="99.42578125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="99.42578125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="24" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D28">
+    <sortCondition ref="A1:A28"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{F8E2D5CF-91A6-4E2F-8370-9BACC48D1246}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{5350558F-4F92-49A1-BE28-84462C347F11}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{4187DEC3-F3C6-422E-8E1E-312AE7E1A395}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{71EEF069-5F89-4945-AA9E-149A81C45042}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{F8E2D5CF-91A6-4E2F-8370-9BACC48D1246}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{5350558F-4F92-49A1-BE28-84462C347F11}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{4187DEC3-F3C6-422E-8E1E-312AE7E1A395}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{71EEF069-5F89-4945-AA9E-149A81C45042}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{94D7E6E4-C01A-4CDC-ACC2-FECD0C726389}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{7126D86E-3CE1-4FCB-AA23-99ADCCF6A06D}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{A3B009B6-3D95-4F1E-988D-18DB323BDAAB}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{02553368-8CAB-4569-9DE5-C6426770E3DB}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{0FC6CA05-E6A3-4BAA-B4B5-36A28E67B08C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>